--- a/data/subset-cleaned-study-data.xlsx
+++ b/data/subset-cleaned-study-data.xlsx
@@ -1,172 +1,179 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tb13101/Desktop/projects/post-doc/biomap-public-data-extraction/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8D988A-BB0A-6D47-BEBE-9FF6F2D9FA1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22340" windowHeight="11980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
-  <si>
-    <t xml:space="preserve">pi_contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data_contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contacted_by</t>
-  </si>
-  <si>
-    <t xml:space="preserve">study_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pmid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resource_id1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resource_id2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resource_link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phenotype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">covariates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comorbidities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">electronic_health_records</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cases_and_controls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tissue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">methylation_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">methylation_assay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">methylation_file_format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raw_methylation_data_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">María C Ovejero-Benito &lt;&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSE151278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE151278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">antitumour necrosis factor drug response in moderate‐to‐severe psoriasis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gender, age, age at initiation, biological drug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excellent responders: 49, Partial responders: 21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">peripheral blood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">series file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fusheng Zhou &lt;biozhoufs@163.com&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSE73894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE73894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cases: 155, Controls: 64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xiaolian Gu &lt;&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSE63315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE63315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cases: 12, Controls: 12. NOTE: epidermis sampled pre-, during-, and post-UV treatment in cases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skin (epidermis)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raghunath Chatterjee &lt;rchatterjee@isical.ac.in&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSE115797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE115797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age, age of psoriasis onset, gender, batch (unclear what batch variable represents)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cases: 24, Controls: 24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skin</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+  <si>
+    <t>pi_contact</t>
+  </si>
+  <si>
+    <t>data_contact</t>
+  </si>
+  <si>
+    <t>contacted_by</t>
+  </si>
+  <si>
+    <t>study_name</t>
+  </si>
+  <si>
+    <t>pmid</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>resource_id1</t>
+  </si>
+  <si>
+    <t>resource_id2</t>
+  </si>
+  <si>
+    <t>resource_link</t>
+  </si>
+  <si>
+    <t>phenotype</t>
+  </si>
+  <si>
+    <t>covariates</t>
+  </si>
+  <si>
+    <t>comorbidities</t>
+  </si>
+  <si>
+    <t>electronic_health_records</t>
+  </si>
+  <si>
+    <t>cases_and_controls</t>
+  </si>
+  <si>
+    <t>tissue</t>
+  </si>
+  <si>
+    <t>methylation_type</t>
+  </si>
+  <si>
+    <t>methylation_assay</t>
+  </si>
+  <si>
+    <t>methylation_file_format</t>
+  </si>
+  <si>
+    <t>raw_methylation_data_available</t>
+  </si>
+  <si>
+    <t>María C Ovejero-Benito &lt;&gt;</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>GSE151278</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE151278</t>
+  </si>
+  <si>
+    <t>antitumour necrosis factor drug response in moderate‐to‐severe psoriasis</t>
+  </si>
+  <si>
+    <t>gender, age, age at initiation, biological drug</t>
+  </si>
+  <si>
+    <t>Excellent responders: 49, Partial responders: 21</t>
+  </si>
+  <si>
+    <t>peripheral blood</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>chip</t>
+  </si>
+  <si>
+    <t>series file</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Fusheng Zhou &lt;biozhoufs@163.com&gt;</t>
+  </si>
+  <si>
+    <t>GSE73894</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE73894</t>
+  </si>
+  <si>
+    <t>PSO</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>Cases: 155, Controls: 64</t>
+  </si>
+  <si>
+    <t>Skin</t>
+  </si>
+  <si>
+    <t>Xiaolian Gu &lt;&gt;</t>
+  </si>
+  <si>
+    <t>GSE63315</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE63315</t>
+  </si>
+  <si>
+    <t>Cases: 12, Controls: 12. NOTE: epidermis sampled pre-, during-, and post-UV treatment in cases</t>
+  </si>
+  <si>
+    <t>skin (epidermis)</t>
+  </si>
+  <si>
+    <t>Raghunath Chatterjee &lt;rchatterjee@isical.ac.in&gt;</t>
+  </si>
+  <si>
+    <t>GSE115797</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE115797</t>
+  </si>
+  <si>
+    <t>age, age of psoriasis onset, gender, batch (unclear what batch variable represents)</t>
+  </si>
+  <si>
+    <t>Cases: 24, Controls: 24</t>
+  </si>
+  <si>
+    <t>skin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -202,6 +209,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -483,14 +499,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -549,14 +567,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2"/>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>28369750</v>
       </c>
       <c r="F2" t="s">
@@ -565,7 +580,7 @@
       <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>200151278</v>
       </c>
       <c r="I2" t="s">
@@ -577,8 +592,6 @@
       <c r="K2" t="s">
         <v>24</v>
       </c>
-      <c r="L2"/>
-      <c r="M2"/>
       <c r="N2" t="s">
         <v>25</v>
       </c>
@@ -598,14 +611,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3"/>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>31</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>26743604</v>
       </c>
       <c r="F3" t="s">
@@ -614,7 +624,7 @@
       <c r="G3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>200073894</v>
       </c>
       <c r="I3" t="s">
@@ -626,8 +636,6 @@
       <c r="K3" t="s">
         <v>35</v>
       </c>
-      <c r="L3"/>
-      <c r="M3"/>
       <c r="N3" t="s">
         <v>36</v>
       </c>
@@ -647,14 +655,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>25830654</v>
       </c>
       <c r="F4" t="s">
@@ -663,7 +668,7 @@
       <c r="G4" t="s">
         <v>39</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>200063315</v>
       </c>
       <c r="I4" t="s">
@@ -675,8 +680,6 @@
       <c r="K4" t="s">
         <v>35</v>
       </c>
-      <c r="L4"/>
-      <c r="M4"/>
       <c r="N4" t="s">
         <v>41</v>
       </c>
@@ -696,14 +699,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5"/>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>43</v>
       </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>30092825</v>
       </c>
       <c r="F5" t="s">
@@ -712,7 +712,7 @@
       <c r="G5" t="s">
         <v>44</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>200115797</v>
       </c>
       <c r="I5" t="s">
@@ -724,8 +724,6 @@
       <c r="K5" t="s">
         <v>46</v>
       </c>
-      <c r="L5"/>
-      <c r="M5"/>
       <c r="N5" t="s">
         <v>47</v>
       </c>
@@ -747,6 +745,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/data/subset-cleaned-study-data.xlsx
+++ b/data/subset-cleaned-study-data.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tb13101/Desktop/projects/post-doc/biomap-public-data-extraction/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8D988A-BB0A-6D47-BEBE-9FF6F2D9FA1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83859690-C87E-674A-AFAA-5D9C82C01BFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22340" windowHeight="11980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <t>pi_contact</t>
   </si>
@@ -167,6 +178,9 @@
   </si>
   <si>
     <t>skin</t>
+  </si>
+  <si>
+    <t>Francisco Abad-Santos &lt;francisco.abad@salud.madrid.org&gt;</t>
   </si>
 </sst>
 </file>
@@ -502,11 +516,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="46.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -568,6 +585,9 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
